--- a/MigrationUtility/TestData/input/MigrationPlanData.xlsx
+++ b/MigrationUtility/TestData/input/MigrationPlanData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="388">
   <si>
     <t xml:space="preserve">RowIndex</t>
   </si>
@@ -520,6 +520,9 @@
     <t xml:space="preserve">DisplayName</t>
   </si>
   <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mode</t>
   </si>
   <si>
@@ -550,6 +553,9 @@
     <t xml:space="preserve">MaxCurrentSession</t>
   </si>
   <si>
+    <t xml:space="preserve">AllowDiscount</t>
+  </si>
+  <si>
     <t xml:space="preserve">QuotaType</t>
   </si>
   <si>
@@ -583,7 +589,10 @@
     <t xml:space="preserve">PostpaidBilingCycle</t>
   </si>
   <si>
-    <t xml:space="preserve">Amit_BandwidthBooster_Plan_1</t>
+    <t xml:space="preserve">Amit_BandwidthBooster_Plan_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP0001</t>
   </si>
   <si>
     <t xml:space="preserve">Prepaid</t>
@@ -607,6 +616,9 @@
     <t xml:space="preserve">True</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Migration</t>
   </si>
   <si>
@@ -628,18 +640,27 @@
     <t xml:space="preserve">Charge1,Charge4</t>
   </si>
   <si>
-    <t xml:space="preserve">Amit_RegistrationAndRenewal_Plan_1</t>
+    <t xml:space="preserve">Amit_RegistrationAndRenewal_Plan_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP0002</t>
   </si>
   <si>
     <t xml:space="preserve">Registration and Renewal</t>
   </si>
   <si>
+    <t xml:space="preserve">Customer Portal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Days</t>
   </si>
   <si>
     <t xml:space="preserve">False</t>
   </si>
   <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
     <t xml:space="preserve">Data</t>
   </si>
   <si>
@@ -649,13 +670,16 @@
     <t xml:space="preserve">Charge2</t>
   </si>
   <si>
-    <t xml:space="preserve">Amit_Registration_Plan_1</t>
+    <t xml:space="preserve">Amit_Registration_Plan_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP0003</t>
   </si>
   <si>
     <t xml:space="preserve">Registration</t>
   </si>
   <si>
-    <t xml:space="preserve">Customer Portal</t>
+    <t xml:space="preserve">Mobile App</t>
   </si>
   <si>
     <t xml:space="preserve">Time</t>
@@ -664,67 +688,91 @@
     <t xml:space="preserve">Hour</t>
   </si>
   <si>
+    <t xml:space="preserve">Charge13,Charge14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amit_VolumeBooster_Plan_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume Booster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 MBPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amit_Renew_Plan_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minute</t>
+  </si>
+  <si>
     <t xml:space="preserve">MB</t>
   </si>
   <si>
-    <t xml:space="preserve">Charge13,Charge14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amit_VolumeBooster_Plan_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume Booster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 MBPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amit_Renew_Plan_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile App</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amit_Special_Renew_Plan_1</t>
+    <t xml:space="preserve">Amit_Special_Renew_Plan_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP0006</t>
   </si>
   <si>
     <t xml:space="preserve">SPECIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Amit_BusinessPromotion_BandwidthBooster_Plan_1</t>
+    <t xml:space="preserve">Amit_BusinessPromotion_BandwidthBooster_Plan_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP0007</t>
   </si>
   <si>
     <t xml:space="preserve">Business Promotion</t>
   </si>
   <si>
-    <t xml:space="preserve">Amit_BusinessPromotion_RegistrationAndRenewal_Plan_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amit_BusinessPromotion_Registration_Plan_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amit_BusinessPromotion_VolumeBooster_Plan_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amit_BusinessPromotion_Renew_Plan_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amit_BusinessPromotion_Special_Renew_Plan_1</t>
+    <t xml:space="preserve">Amit_BusinessPromotion_RegistrationAndRenewal_Plan_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amit_BusinessPromotion_Registration_Plan_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP0009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amit_BusinessPromotion_VolumeBooster_Plan_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amit_BusinessPromotion_Renew_Plan_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amit_BusinessPromotion_Special_Renew_Plan_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP0012</t>
   </si>
   <si>
     <t xml:space="preserve">PlanBundleName</t>
@@ -742,9 +790,6 @@
     <t xml:space="preserve">PlanCategory</t>
   </si>
   <si>
-    <t xml:space="preserve">AllowDiscount</t>
-  </si>
-  <si>
     <t xml:space="preserve">[Service:PlanName]</t>
   </si>
   <si>
@@ -893,9 +938,6 @@
   </si>
   <si>
     <t xml:space="preserve">SUBISU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Customer_20</t>
@@ -1592,61 +1634,61 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="T1" s="17"/>
     </row>
@@ -2158,64 +2200,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>35</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7080,43 +7122,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7124,10 +7166,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="D2" s="18" t="n">
         <v>328.65</v>
@@ -7146,7 +7188,7 @@
         <v>54321</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -7189,25 +7231,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>36</v>
@@ -7218,22 +7260,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="H2" s="19" t="n">
         <v>44907</v>
@@ -8378,39 +8420,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC1048576"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="32.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="22.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="1" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="49.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="21" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="22.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="1" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="18.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8421,22 +8464,22 @@
         <v>161</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>165</v>
@@ -8454,22 +8497,22 @@
         <v>169</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>171</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>174</v>
@@ -8498,1017 +8541,1089 @@
       <c r="AC1" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="K2" s="12" t="n">
+        <v>190</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="12" t="n">
         <v>44953</v>
       </c>
-      <c r="L2" s="12" t="n">
+      <c r="M2" s="12" t="n">
         <v>47510</v>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="N2" s="5" t="n">
         <v>720</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="O2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q2" s="5" t="n">
+      <c r="Q2" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="R2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T2" s="5" t="n">
+      <c r="V2" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V2" s="5" t="n">
+      <c r="W2" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="X2" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="Y2" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>199</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" s="12" t="n">
+        <v>44954</v>
+      </c>
+      <c r="M3" s="12" t="n">
+        <v>47511</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z3" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="12" t="n">
-        <v>44954</v>
-      </c>
-      <c r="L3" s="12" t="n">
-        <v>47511</v>
-      </c>
-      <c r="M3" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB3" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB3" s="5" t="n">
+      <c r="AC3" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD3" s="5" t="n">
         <v>111</v>
       </c>
-      <c r="AC3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>185</v>
+        <v>213</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <v>44955</v>
+      </c>
+      <c r="M4" s="12" t="n">
+        <v>47512</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>365</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="K4" s="12" t="n">
-        <v>44955</v>
-      </c>
-      <c r="L4" s="12" t="n">
-        <v>47512</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>365</v>
-      </c>
-      <c r="N4" s="5" t="s">
+      <c r="P4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="V4" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB4" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="T4" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="V4" s="5" t="n">
-        <v>1024</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5" t="n">
+      <c r="AC4" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>185</v>
+        <v>220</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="12" t="n">
+      <c r="J5" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="12" t="n">
         <v>44956</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="M5" s="12" t="n">
         <v>47513</v>
       </c>
-      <c r="M5" s="5" t="n">
+      <c r="N5" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="O5" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q5" s="5" t="n">
+      <c r="Q5" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="R5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="S5" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T5" s="5" t="n">
-        <v>100</v>
+        <v>208</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="V5" s="5" t="n">
-        <v>500</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>194</v>
+        <v>209</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5" t="n">
+        <v>223</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>185</v>
+        <v>226</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="J6" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="K6" s="12" t="n">
+        <v>190</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L6" s="12" t="n">
         <v>44957</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="M6" s="12" t="n">
         <v>47514</v>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="N6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="O6" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q6" s="5" t="n">
+      <c r="Q6" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="R6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="S6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="U6" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="S6" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
       <c r="V6" s="5" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>194</v>
+        <v>229</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>500</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB6" s="5" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD6" s="5" t="n">
         <v>222</v>
       </c>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L7" s="12" t="n">
+        <v>44958</v>
+      </c>
+      <c r="M7" s="12" t="n">
+        <v>47515</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD7" s="5" t="n">
         <v>222</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="K7" s="12" t="n">
-        <v>44958</v>
-      </c>
-      <c r="L7" s="12" t="n">
-        <v>47515</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB7" s="5" t="n">
-        <v>222</v>
-      </c>
-      <c r="AC7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>225</v>
+        <v>235</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="J8" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="K8" s="12" t="n">
+        <v>190</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="12" t="n">
         <v>44959</v>
       </c>
-      <c r="L8" s="12" t="n">
+      <c r="M8" s="12" t="n">
         <v>47516</v>
       </c>
-      <c r="M8" s="5" t="n">
+      <c r="N8" s="5" t="n">
         <v>720</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="O8" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q8" s="5" t="n">
+      <c r="Q8" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="R8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="S8" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T8" s="5" t="n">
+      <c r="V8" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="U8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V8" s="5" t="n">
+      <c r="W8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="X8" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="W8" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="Y8" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>199</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="12" t="n">
+        <v>44960</v>
+      </c>
+      <c r="M9" s="12" t="n">
+        <v>47517</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z9" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="12" t="n">
-        <v>44960</v>
-      </c>
-      <c r="L9" s="12" t="n">
-        <v>47517</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="N9" s="5" t="s">
+      <c r="AA9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB9" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="X9" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA9" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB9" s="5" t="n">
+      <c r="AC9" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD9" s="5" t="n">
         <v>111</v>
       </c>
-      <c r="AC9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="L10" s="12" t="n">
+        <v>44961</v>
+      </c>
+      <c r="M10" s="12" t="n">
+        <v>47518</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>365</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="K10" s="12" t="n">
-        <v>44961</v>
-      </c>
-      <c r="L10" s="12" t="n">
-        <v>47518</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>365</v>
-      </c>
-      <c r="N10" s="5" t="s">
+      <c r="P10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q10" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="T10" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="V10" s="5" t="n">
-        <v>1024</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5" t="n">
+      <c r="AC10" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>225</v>
+        <v>242</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H11" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="12" t="n">
+      <c r="J11" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="12" t="n">
         <v>44962</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="M11" s="12" t="n">
         <v>47519</v>
       </c>
-      <c r="M11" s="5" t="n">
+      <c r="N11" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="O11" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q11" s="5" t="n">
+      <c r="Q11" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="R11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="R11" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="S11" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>100</v>
+        <v>208</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="V11" s="5" t="n">
-        <v>500</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>194</v>
+        <v>209</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5" t="n">
+        <v>223</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L12" s="12" t="n">
+        <v>44963</v>
+      </c>
+      <c r="M12" s="12" t="n">
+        <v>47520</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="V12" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="W12" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="K12" s="12" t="n">
-        <v>44963</v>
-      </c>
-      <c r="L12" s="12" t="n">
-        <v>47520</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q12" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="X12" s="5" t="s">
-        <v>194</v>
+      <c r="X12" s="5" t="n">
+        <v>500</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB12" s="5" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD12" s="5" t="n">
         <v>222</v>
       </c>
-      <c r="AC12" s="5"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L13" s="12" t="n">
+        <v>44964</v>
+      </c>
+      <c r="M13" s="12" t="n">
+        <v>47521</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD13" s="5" t="n">
         <v>222</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="K13" s="12" t="n">
-        <v>44964</v>
-      </c>
-      <c r="L13" s="12" t="n">
-        <v>47521</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q13" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA13" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB13" s="5" t="n">
-        <v>222</v>
-      </c>
-      <c r="AC13" s="5"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="AE13" s="5"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -9549,28 +9664,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9578,29 +9693,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H2" s="13" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9608,29 +9723,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H3" s="13" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -9686,73 +9801,73 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>35</v>
@@ -9761,19 +9876,19 @@
         <v>69</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9781,34 +9896,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="L2" s="5" t="n">
         <v>977</v>
@@ -9817,39 +9932,39 @@
         <v>9824212345</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="5" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="AA2" s="6" t="n">
         <v>10</v>
@@ -9858,13 +9973,13 @@
         <v>85</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="AD2" s="6" t="n">
         <v>300</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9872,34 +9987,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="L3" s="5" t="n">
         <v>977</v>
@@ -9908,43 +10023,43 @@
         <v>9824212346</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="X3" s="6" t="n">
         <v>555</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="AA3" s="6" t="n">
         <v>-10</v>
@@ -9953,13 +10068,13 @@
         <v>85</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="AD3" s="6" t="n">
         <v>400</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9967,34 +10082,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>977</v>
@@ -10003,43 +10118,43 @@
         <v>9824212347</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="X4" s="6" t="n">
         <v>222</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="AA4" s="6" t="n">
         <v>10</v>
@@ -10048,13 +10163,13 @@
         <v>85</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="AD4" s="6" t="n">
         <v>500</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10062,34 +10177,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>977</v>
@@ -10098,43 +10213,43 @@
         <v>9824212348</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="X5" s="6" t="n">
         <v>555</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="AA5" s="6" t="n">
         <v>-10</v>
@@ -10143,13 +10258,13 @@
         <v>85</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="AD5" s="6" t="n">
         <v>600</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -10170,8 +10285,8 @@
   </sheetPr>
   <dimension ref="A1:AH1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10189,64 +10304,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>35</v>
@@ -10255,7 +10370,7 @@
         <v>69</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10263,25 +10378,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>25</v>
@@ -10293,37 +10408,37 @@
         <v>9824212345</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="W2" s="6" t="n">
         <v>10</v>
@@ -10334,25 +10449,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>25</v>
@@ -10364,37 +10479,37 @@
         <v>9824212346</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="W3" s="6" t="n">
         <v>-10</v>
@@ -10405,25 +10520,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>25</v>
@@ -10435,37 +10550,37 @@
         <v>9824212347</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>59</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>20</v>
@@ -10476,25 +10591,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>25</v>
@@ -10506,37 +10621,37 @@
         <v>9824212348</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>-20</v>
@@ -10547,25 +10662,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>25</v>
@@ -10577,37 +10692,37 @@
         <v>9824212349</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>59</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>10</v>
@@ -10615,7 +10730,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="2" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>160</v>
@@ -10630,76 +10745,76 @@
         <v>33</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10707,31 +10822,31 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>59</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P11" s="12" t="n">
         <v>44903</v>
@@ -10743,7 +10858,7 @@
         <v>6</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="T11" s="5" t="s">
         <v>28</v>
@@ -10756,34 +10871,34 @@
         <v>1</v>
       </c>
       <c r="W11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="X11" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="Y11" s="5" t="n">
         <v>30</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AA11" s="5" t="n">
         <v>10</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AD11" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
@@ -10793,28 +10908,28 @@
         <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="12" t="n">
@@ -10827,7 +10942,7 @@
         <v>30</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="T12" s="5" t="s">
         <v>28</v>
@@ -10840,10 +10955,10 @@
         <v>1</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
@@ -10851,19 +10966,19 @@
         <v>5</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AG12" s="5" t="n">
         <v>111</v>
@@ -10875,31 +10990,31 @@
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>59</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P13" s="12" t="n">
         <v>44905</v>
@@ -10911,7 +11026,7 @@
         <v>365</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="T13" s="5" t="s">
         <v>28</v>
@@ -10924,34 +11039,34 @@
         <v>1</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Y13" s="5" t="n">
         <v>24</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AA13" s="5" t="n">
         <v>1024</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AD13" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5" t="n">
@@ -10963,28 +11078,28 @@
         <v>4</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="12" t="n">
@@ -10997,7 +11112,7 @@
         <v>12</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>28</v>
@@ -11010,34 +11125,34 @@
         <v>1</v>
       </c>
       <c r="W14" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="X14" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="X14" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="Y14" s="5" t="n">
         <v>100</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AA14" s="5" t="n">
         <v>500</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5" t="n">
@@ -11049,31 +11164,31 @@
         <v>5</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>59</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P15" s="12" t="n">
         <v>44907</v>
@@ -11085,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>28</v>
@@ -11098,10 +11213,10 @@
         <v>1</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
@@ -11109,24 +11224,62 @@
         <v>3</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF15" s="5" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AG15" s="5" t="n">
         <v>222</v>
       </c>
       <c r="AH15" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">F19*G19</f>
+        <v>3900</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">F19+H19</f>
+        <v>33900</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">F20*G20</f>
+        <v>104</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">F20+H20</f>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="0" t="n">
+        <f aca="false">SUM(J19:J20)</f>
+        <v>34804</v>
+      </c>
     </row>
     <row r="1048566" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11178,43 +11331,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
